--- a/data/long_dif/P23_11-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_11-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>15,7%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 24,2</t>
+          <t>5,85; 19,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,92; 18,47</t>
+          <t>8,22; 19,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,86; 24,68</t>
+          <t>4,37; 17,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 19,17</t>
+          <t>10,03; 23,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,37; 21,26</t>
+          <t>10,9; 19,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,74; 17,76</t>
+          <t>9,98; 23,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 19,85</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,85; 18,11</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8,6; 17,89</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>79,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,07%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>70,1%</t>
+          <t>67,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>69,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>72,68%</t>
+          <t>66,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72,66%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>72,22%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63,3%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,43; 84,01</t>
+          <t>69,6; 88,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,82; 83,23</t>
+          <t>69,08; 83,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>60,59; 75,04</t>
+          <t>35,8; 72,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63,78; 75,82</t>
+          <t>58,55; 75,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,75; 76,74</t>
+          <t>62,83; 74,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,49; 77,13</t>
+          <t>56,98; 75,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>65,84; 78,78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>67,25; 76,9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50,94; 70,79</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>17,99%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 18,13</t>
+          <t>4,06; 16,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 17,26</t>
+          <t>6,69; 16,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 20,92</t>
+          <t>17,64; 57,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,88; 20,41</t>
+          <t>11,24; 23,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 17,86</t>
+          <t>11,35; 21,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 17,43</t>
+          <t>11,81; 27,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 18,37</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 17,7</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 38,77</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 21,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,39; 22,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 16,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 20,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 13,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>74,22%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,29%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>64,24%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68,88%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>69,22%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>74,63%</t>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,9; 78,63</t>
+          <t>10,51; 24,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,88; 84,39</t>
+          <t>6,15; 11,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,32; 69,29</t>
+          <t>8,45; 23,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,55; 72,92</t>
+          <t>13,98; 23,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,18; 72,62</t>
+          <t>10,43; 16,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,55; 77,63</t>
+          <t>11,49; 19,4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,36; 20,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 13,38</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,08; 19,59</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>73,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>70,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>63,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>69,12%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>68,76%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>74,11%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>69,81%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,72; 14,24</t>
+          <t>65,31; 79,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,85</t>
+          <t>73,87; 83,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,82; 21,76</t>
+          <t>61,4; 76,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,61; 21,49</t>
+          <t>58,69; 69,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,81; 16,75</t>
+          <t>63,99; 72,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,34</t>
+          <t>64,02; 73,96</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>64,14; 72,78</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>70,59; 77,05</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64,49; 73,91</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,0; 26,83</t>
+          <t>7,53; 15,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,41; 14,83</t>
+          <t>8,37; 17,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,58; 21,36</t>
+          <t>11,96; 21,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,56; 16,54</t>
+          <t>14,62; 23,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,67</t>
+          <t>14,79; 21,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,85</t>
+          <t>12,08; 20,51</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12,28; 17,59</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12,44; 18,06</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 19,49</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>79,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>69,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>69,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>71,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>64,48; 80,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>73,38; 84,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>63,55; 73,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>65,22; 73,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>67,36; 75,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,78; 77,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14,89%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>12,9%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,79; 13,44</t>
+          <t>8,39; 21,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,79</t>
+          <t>5,46; 15,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,47; 19,5</t>
+          <t>5,28; 12,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 21,6</t>
+          <t>12,21; 21,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,24; 14,72</t>
+          <t>9,41; 15,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,42; 17,67</t>
+          <t>13,52; 21,18</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11,87; 19,44</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 13,91</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 15,7</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>78,46%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>79,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>68,38%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>66,83%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>73,07%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>74,36%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>71,44%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11,97; 18,96</t>
+          <t>70,26; 83,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>7,33; 11,93</t>
+          <t>73,17; 84,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>14,81; 20,29</t>
+          <t>64,6; 81,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,64; 15,55</t>
+          <t>62,59; 73,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,17; 18,79</t>
+          <t>65,76; 74,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,08; 13,17</t>
+          <t>61,45; 71,59</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>68,28; 77,06</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>70,79; 77,55</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>66,4; 75,26</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>74,59%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>79,31%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>66,61%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>69,46%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>70,46%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>74,18%</t>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>70,26; 78,16</t>
+          <t>4,97; 12,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>75,88; 82,13</t>
+          <t>8,59; 16,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>63,37; 69,68</t>
+          <t>10,5; 27,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>66,77; 72,01</t>
+          <t>11,31; 20,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>67,79; 72,98</t>
+          <t>14,47; 21,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>72,05; 76,14</t>
+          <t>11,97; 20,32</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 15,23</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 18,0</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 21,44</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,924 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,98; 12,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9,19; 14,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>13,89; 18,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,03; 19,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>11,51; 14,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>12,81; 16,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>11,79; 28,57</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 24,6</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>13,65; 24,45</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>70,62%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>68,05%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>69,43%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>61,3; 79,14</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>60,23; 75,81</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>62,83; 75,2</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 17,39</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 21,0</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>8,87; 17,0</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 18,73</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>7,43; 11,9</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>8,07; 15,26</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>14,68; 20,03</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 15,46</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 18,76</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>14,06; 18,25</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>10,04; 13,0</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 15,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>75,18%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>78,74%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>70,45%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>66,39%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>69,23%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>67,69%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>70,63%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>73,8%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>69,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>71,05; 78,8</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>75,27; 81,7</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>62,81; 75,11</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>62,89; 69,58</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>66,37; 71,78</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>64,35; 71,38</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>67,83; 72,9</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>71,61; 75,83</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>65,01; 71,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>11,83%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>17,4%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>16,25%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>17,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>8,03; 12,43</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>9,56; 14,79</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 26,84</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 19,24</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 19,76</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 19,07</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 15,08</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 16,54</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>15,14; 21,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
